--- a/src/main/java/com/qa/hubspot/testdata/HubSpotTestData.xlsx
+++ b/src/main/java/com/qa/hubspot/testdata/HubSpotTestData.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13350" windowHeight="1770"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -41,6 +40,18 @@
   </si>
   <si>
     <t>Eng Manager</t>
+  </si>
+  <si>
+    <t>jaslin@gmail.com</t>
+  </si>
+  <si>
+    <t>jaslin</t>
+  </si>
+  <si>
+    <t>jaslinkaur</t>
+  </si>
+  <si>
+    <t>test engineer</t>
   </si>
 </sst>
 </file>
@@ -379,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -421,9 +432,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
